--- a/Contour/Resources/fail.xlsx
+++ b/Contour/Resources/fail.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pattern!$I$1:$I$66</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
